--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="登陆" sheetId="2" r:id="rId2"/>
-    <sheet name="注册" sheetId="3" r:id="rId3"/>
+    <sheet name="注册" sheetId="9" r:id="rId3"/>
     <sheet name="发布货源" sheetId="4" r:id="rId4"/>
     <sheet name="我的货源" sheetId="5" r:id="rId5"/>
     <sheet name="找车源" sheetId="6" r:id="rId6"/>
+    <sheet name="查找货源" sheetId="7" r:id="rId7"/>
+    <sheet name="完善用户信息" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="313">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在未登录的情况下点击快速查询订单搜索按钮，弹出登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在未登录的情况下点击公共货源和公共车源中的“更多”按钮，弹出登录界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,6 +662,449 @@
   </si>
   <si>
     <t>在搜索之后的车源列表上，根据车牌号收藏货源，并判断是否收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在未登录的情况下点击物流跟踪上的快速查询订单搜索按钮，弹出登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_015_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_014_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_013_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_012_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_011_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_010_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入货物名称，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_009_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入货车类型，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_008_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_007_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入最大车长，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_006_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入最小车长，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_005_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_004_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入收货地址，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_003_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入发货地，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_002_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,弹出查找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_001_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空数据库中该用户的全部个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_034_JdbcUpdateDeleteAddUseInfo_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_033_Success_All_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_032_Fail_TelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_031_Fail_NameIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_030_Fail_NameTelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_029_Fail_NameTelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_028_Fail_NameTelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_027_Fail_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_026_Fail_TelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_025_Fail_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_024_Fail_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_023_Fail_NameCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_022_Fail_NameIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_021_Fail_NameIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_020_Fail_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_019_Fail_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_018_Fail_NameTelIdcar_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_017_Fail_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_016_Fail_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_015_Fail_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_014_Fail_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_013_Fail_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_012_Fail_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_011_Fail_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_010_Fail_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_009_Fail_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_008_Fail_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_007_Fail_Address_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_006_Fail_Company_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_005_Fail_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_004_Fail_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_003_Fail_Name_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_002_Fail_All_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_001_UI_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空数据库中该用户的注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_012_JdbcUpdateDeleteUsername_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_011_End_Success_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_010_Fail_UssernameAndPasswordDifRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_009_Fail_PasswordDifferentRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_008_Fail_PasswordAndRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_007_Fail_UsernameAndRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_006_Fail_UsernameAndPassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_005_Fail_OnlyRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_004_Fail_OnlyPassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_003_Fail_OnlyUsername_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，全部为空，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_002_Fail_All_Empty_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_001_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_013_NotLogin_QuickSearchCars_Test</t>
+  </si>
+  <si>
+    <t>在未登录的情况下，点击快速超找车源上的查询按钮弹出登录界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +1135,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +1145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,6 +1202,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1078,7 +1531,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -1086,7 +1539,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -1094,7 +1547,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -1102,7 +1555,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -1110,7 +1563,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1118,7 +1571,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -1126,62 +1579,58 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1241,8 +1690,12 @@
       <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -1395,7 +1848,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1414,66 +1867,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1796,12 +2249,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="2" max="2" width="94.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1831,314 +2627,314 @@
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -2595,122 +3391,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -2867,7 +3663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2887,130 +3683,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -3104,6 +3900,819 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="2" max="2" width="66.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="2" max="2" width="66.25" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="8"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="8"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="8"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="8"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="8"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="8"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="8"/>
+      <c r="B71" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="327">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,8 +1104,53 @@
     <t>HomePage_013_NotLogin_QuickSearchCars_Test</t>
   </si>
   <si>
-    <t>在未登录的情况下，点击快速超找车源上的查询按钮弹出登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>HomePage_014_NotLogin_QuickSearchGoods_Test</t>
+  </si>
+  <si>
+    <t>在未登录的情况下，点击快速找车源上的查询按钮弹出登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在未登录的情况下，点击快速找货源上的查询按钮弹出登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_015_NotLoginCheckLicense_Test</t>
+  </si>
+  <si>
+    <t>在未登录的情况下，检查车源中的驾驶证信息应该为隐藏***显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_016_NotLoginClickBackToTop_Test</t>
+  </si>
+  <si>
+    <t>未登录情况下点击返回到顶部按钮，能正常返回到顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_101_Login_FindCarsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_102_Login_FindGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_103_Login_MyGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_104_Login_MyOrdersTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 点击找车源，成功进入找车源页面</t>
+  </si>
+  <si>
+    <t>登录情况下 点击找货源，成功进入找货源页面</t>
+  </si>
+  <si>
+    <t>登录情况下 点击我的货源，成功进入我的货源页面</t>
+  </si>
+  <si>
+    <t>登录情况下 点击我的订单，成功进入我的订单页面</t>
   </si>
 </sst>
 </file>
@@ -1511,13 +1556,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
     <col min="2" max="2" width="51.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,16 +1675,32 @@
         <v>311</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
@@ -1698,20 +1759,36 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="找车源" sheetId="6" r:id="rId6"/>
     <sheet name="查找货源" sheetId="7" r:id="rId7"/>
     <sheet name="完善用户信息" sheetId="8" r:id="rId8"/>
+    <sheet name="我的订单" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="329">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1151,6 +1152,13 @@
   </si>
   <si>
     <t>登录情况下 点击我的订单，成功进入我的订单页面</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_001_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1556,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -4357,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4795,4 +4803,41 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="335">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1158,6 +1158,27 @@
   </si>
   <si>
     <t>我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_105_Login_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_106_Login_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_107_Login_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找车源操作，只输入出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找车源操作，只输入目的地，页面正确跳转到找车源界面，并且找到指定的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找车源操作，输入目的地和出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1798,17 +1819,29 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
@@ -4809,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="339">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1179,6 +1179,20 @@
   </si>
   <si>
     <t>登录情况下 进行快速查找车源操作，输入目的地和出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_017_CancelFavoriteCars_Test</t>
+  </si>
+  <si>
+    <t>在公共车源列表取消收藏的车源，不会弹出确认取消收藏的提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_018_CancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1585,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -3781,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3928,12 +3942,20 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="341">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,10 +1189,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindCarsPage_018_CancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示</t>
+    <t>FindCarsPage_019_CancelFavoriteCars_Test</t>
+  </si>
+  <si>
+    <t>FindCarsPage_018_DismissCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点确定按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3796,7 +3803,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3949,17 +3956,21 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="347">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1201,6 +1201,24 @@
   <si>
     <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点确定按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_108_Login_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找货源操作，只输入出发地，页面正确跳转到找货源界面，并且找到指定的货源</t>
+  </si>
+  <si>
+    <t>HomePage_109_Login_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找货源操作，只输入目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
+  </si>
+  <si>
+    <t>HomePage_110_Login_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找货源操作，只输入出发地和目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
   </si>
 </sst>
 </file>
@@ -1313,12 +1331,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1360,7 +1381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,7 +1416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1606,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1864,17 +1885,29 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
@@ -3802,7 +3835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="349">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,6 +1219,13 @@
   </si>
   <si>
     <t>登录情况下 进行快速查找货源操作，只输入出发地和目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_016_EditGoods_Test.java</t>
+  </si>
+  <si>
+    <t>在我的货源里面点击编辑按钮，进行货源编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1339,7 +1346,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1381,7 +1388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1416,7 +1423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1627,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3543,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3682,8 +3689,12 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
@@ -3835,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="353">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1225,6 +1225,20 @@
   </si>
   <si>
     <t>在我的货源里面点击编辑按钮，进行货源编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGoodsPage_017_DeleteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_018_CancelDeleteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>在我的货源里删除货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的货源里删除货源，弹出的二次提示框上点击取消按钮，货源不应该被删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3550,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3697,12 +3711,20 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
+      <c r="A18" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -1189,9 +1189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindCarsPage_019_CancelFavoriteCars_Test</t>
-  </si>
-  <si>
     <t>FindCarsPage_018_DismissCancelFavoriteCars_Test.java</t>
   </si>
   <si>
@@ -1240,6 +1237,9 @@
   <si>
     <t>在我的货源里删除货源，弹出的二次提示框上点击取消按钮，货源不应该被删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_019_AcceptCancelFavoriteCars_Test.java</t>
   </si>
 </sst>
 </file>
@@ -1908,26 +1908,26 @@
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -3564,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3704,26 +3704,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3868,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4024,18 +4024,18 @@
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3868,7 +3868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="388">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,6 +1240,115 @@
   </si>
   <si>
     <t>FindCarsPage_019_AcceptCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_000_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_001_AddMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_002_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_003_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_004_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_005_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_006_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_007_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_008_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_009_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_010_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_011_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_012_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_013_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_014_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_015_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>点击我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最小车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最大车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货车类型，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货物名称，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在我的收藏tab中，取消我的收藏为公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1360,7 +1469,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1402,7 +1511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1437,7 +1546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1648,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -4126,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4138,7 +4247,7 @@
     <col min="2" max="2" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>215</v>
       </c>
@@ -4146,7 +4255,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>213</v>
       </c>
@@ -4154,7 +4263,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>211</v>
       </c>
@@ -4162,15 +4271,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>207</v>
       </c>
@@ -4178,7 +4290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>205</v>
       </c>
@@ -4186,7 +4298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>203</v>
       </c>
@@ -4194,7 +4306,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>201</v>
       </c>
@@ -4202,7 +4314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>199</v>
       </c>
@@ -4210,7 +4322,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>197</v>
       </c>
@@ -4218,7 +4330,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>195</v>
       </c>
@@ -4226,7 +4338,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>193</v>
       </c>
@@ -4234,7 +4346,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>191</v>
       </c>
@@ -4242,7 +4354,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>189</v>
       </c>
@@ -4250,7 +4362,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>187</v>
       </c>
@@ -4258,7 +4370,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>185</v>
       </c>
@@ -4271,72 +4383,140 @@
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="390">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,139 +1215,147 @@
     <t>HomePage_110_Login_QuickSearchGoods_Test.java</t>
   </si>
   <si>
+    <t>MyGoodsPage_016_EditGoods_Test.java</t>
+  </si>
+  <si>
+    <t>在我的货源里面点击编辑按钮，进行货源编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGoodsPage_017_DeleteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_018_CancelDeleteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>在我的货源里删除货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的货源里删除货源，弹出的二次提示框上点击取消按钮，货源不应该被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_019_AcceptCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_000_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_001_AddMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_002_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_003_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_004_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_005_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_006_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_007_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_008_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_009_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_010_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_011_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_012_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_013_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_014_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_015_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>点击我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最小车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最大车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货车类型，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货物名称，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在我的收藏tab中，取消我的收藏为公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_111_Login_QuickSearchOrders_Test.java</t>
+  </si>
+  <si>
     <t>登录情况下 进行快速查找货源操作，只输入出发地和目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_016_EditGoods_Test.java</t>
-  </si>
-  <si>
-    <t>在我的货源里面点击编辑按钮，进行货源编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyGoodsPage_017_DeleteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_018_CancelDeleteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>在我的货源里删除货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我的货源里删除货源，弹出的二次提示框上点击取消按钮，货源不应该被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_019_AcceptCancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_000_UITestCheck_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_001_AddMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_002_ValidSendFrom_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_003_ValidSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_004_ValidSendFromAndSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_005_ValidMinCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_006_ValidMaxCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_007_ValidAllCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_008_ValidCarType_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_009_ValidGoodsName_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_010_ValidMinWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_011_ValidMaxWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_012_ValidAllWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_013_ValidMinVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_014_ValidMaxVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_015_ValidAllVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>点击我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入收货地址，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最小车长，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最大车长，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入车长的一个区间，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货车类型，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货物名称，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在我的收藏tab中，取消我的收藏为公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找订单，页面正确跳转到我的订单页面，并且搜索出了指定的订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1469,7 +1477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1511,7 +1519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1546,7 +1554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1757,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2036,12 +2044,16 @@
         <v>344</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
@@ -3813,26 +3825,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -4141,7 +4153,7 @@
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>339</v>
@@ -4237,8 +4249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4279,7 +4291,7 @@
         <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -4384,138 +4396,138 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="416">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,45 +557,6 @@
     <t>FindCarsPage_001_UITextCheck_Test.java</t>
   </si>
   <si>
-    <t>FindCarsPage_002_AllDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_003_FromDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_004_StartCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_005_EndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_006_StartEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_007_CarTypeDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_008_StartCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_009_EndCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_010_AllCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_011_StartCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_012_EndCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_013_AllCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_014_TargetCityDataInputSearch_Test.java</t>
-  </si>
-  <si>
     <t>FindCarsPage_015_FavoriteCarsWithNoSearch_Test.java</t>
   </si>
   <si>
@@ -606,58 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在默认车源列表上，根据车牌号收藏货源，并判断是否收藏成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,6 +1265,188 @@
   </si>
   <si>
     <t>登录情况下 进行快速查找订单，页面正确跳转到我的订单页面，并且搜索出了指定的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_002_Public_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_003_Public_FromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_004_Public_StartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_005_Public_EndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_006_Public_StartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_007_Public_CarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_008_Public_StartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_009_Public_EndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_010_Public_AllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_011_Public_StartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_012_Public_EndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_013_Public_AllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_014_Public_TargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>公共车源中：找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_020_Private_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_021_Private_FromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_022_Private_StartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_023_Private_EndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_024_Private_StartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_025_Private_CarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_026_Private_StartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_027_Private_EndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_028_Private_AllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_029_Private_StartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_030_Private_EndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_031_Private_AllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_032_Private_TargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>公共车源中：只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1765,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -1844,7 +1935,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -1881,34 +1972,34 @@
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1969,90 +2060,90 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -2577,106 +2668,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -3825,26 +3916,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3989,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4012,204 +4103,256 @@
         <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>369</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>175</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>160</v>
+        <v>372</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>162</v>
+        <v>374</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>178</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>179</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>180</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
@@ -4261,133 +4404,133 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -4396,138 +4539,138 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -4701,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -4709,274 +4852,274 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -5145,7 +5288,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -5153,10 +5296,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="查找货源" sheetId="7" r:id="rId7"/>
     <sheet name="完善用户信息" sheetId="8" r:id="rId8"/>
     <sheet name="我的订单" sheetId="10" r:id="rId9"/>
+    <sheet name="公司信息" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="424">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1447,6 +1448,34 @@
   </si>
   <si>
     <t>我的收藏：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FootPage_001_ContactUs_Test.java</t>
+  </si>
+  <si>
+    <t>FootPage_002_AboutUs_Test.java</t>
+  </si>
+  <si>
+    <t>FootPage_003_Help_Test.java</t>
+  </si>
+  <si>
+    <t>FootPage_004_COA_Test.java</t>
+  </si>
+  <si>
+    <t>点击底部公司信息，联系我们，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击底部公司信息，关于我们，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击底部公司信息，帮助中心，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击底部公司信息，帮助中心，然后点击左边的运营活动，检查页面是否正常显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1610,7 +1639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1645,7 +1674,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2248,6 +2277,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="68.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
@@ -4080,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -5277,7 +5367,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="426">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1476,6 +1476,13 @@
   </si>
   <si>
     <t>点击底部公司信息，帮助中心，然后点击左边的运营活动，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_033_SortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>我的车源中，按信用等级排序的用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,7 +1604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1639,7 +1646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,7 +1681,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2281,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4170,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4445,8 +4452,12 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="432">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1479,10 +1479,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindCarsPage_033_SortByCredit_Test.java</t>
-  </si>
-  <si>
-    <t>我的车源中，按信用等级排序的用例</t>
+    <t>FindCarsPage_033_Public_SortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_034_Public_SortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_035_Public_SortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_036_Public_SortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按信用等级排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按车长排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按信载重排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按体积排序的用例（升序和降序）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4178,7 +4199,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4456,20 +4477,32 @@
         <v>424</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="440">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1504,6 +1504,34 @@
   </si>
   <si>
     <t>我的车源-公共车源中，按体积排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_037_Private_SortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_038_Private_SortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_039_Private_SortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_040_Private_SortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按信用等级排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按车长排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按信载重排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按体积排序的用例（升序和降序）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4196,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4505,16 +4533,36 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>439</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="462">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,10 +1067,6 @@
     <t>MyOrdersPage_001_UITextCheck_Test.java</t>
   </si>
   <si>
-    <t>我的订单UI、文本测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HomePage_105_Login_QuickSearchCars_Test.java</t>
   </si>
   <si>
@@ -1532,6 +1528,87 @@
   </si>
   <si>
     <t>我的收藏-公共车源中，按体积排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_002_SendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_003_SendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_004_SendToAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_005_OrdersDateStart_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_006_OrdersDateEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_007_OrdersDateStartAndEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_008_OrdersNum_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_009_GoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_010_Driver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_011_Receiver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_012_HarvestCompany_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，检查我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单开始时间，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单结束时间，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单的时间范围，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地和收获地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写承运司机，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收货人，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1730,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1695,7 +1772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,7 +1807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2177,58 +2254,58 @@
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -2357,34 +2434,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -3922,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4062,26 +4139,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -4226,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -4254,106 +4331,106 @@
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -4374,194 +4451,194 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -4616,7 +4693,7 @@
         <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -4721,138 +4798,138 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -5456,16 +5533,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.125" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="1" max="1" width="49.875" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -5481,7 +5558,95 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="472">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1609,6 +1609,42 @@
   </si>
   <si>
     <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_017_CreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_018_CarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_020_CarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的默认排序功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_016_DefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照信用等级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车长排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_019_CarWeightSort_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车重排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照体积排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1772,7 +1808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1807,7 +1843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4651,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4933,24 +4969,44 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
@@ -5535,7 +5591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="494">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,1574 +77,1651 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>检查登陆界面的UI、文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名和密码都不输入点击登录，登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入用户名不输入密码点击登录，登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入密码不输入用户名点击登陆，登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个数据库中不存在的用户名，输入正确/不正确密码点击登陆，登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的用户名，但是密码不正确，点击登录，登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功以后，验证是否能退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功登陆测试用例并检查用户名相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendGoodsPage_001_All_Valid_Data_For_Weight_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_002_All_Valid_Data_For_Volume_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_003_All_Valid_Required_Data_For_Weight_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_004_All_Valid_Required_Data_For_Volume_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_005_All_Empty_Data_Fail_Weight_Device_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_006_All_Empty_Data_Fail_Weight_Heavy_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_007_All_Empty_Data_Fail_Volume_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_008_Original_Empty_Data_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_009_Receipt_Empty_Data_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_010_GoodsName_Empty_Data_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_011_Weight_Empty_Data_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_012_Volume_Empty_Data_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_013_All_Valid_Data_For_Weight_Detail_Empty_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_014_All_Valid_Data_For_Volume_Detail_Empty_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_015_CheckGoodsAllNames_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_016_CheckAllCarTypes_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_017_CheckAllCarLength_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_018_Goods_Memo_Count_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_019_All_Valid_Data_For_SpecialZone_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_020_Beyond_Weight_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_021_Beyond_Volume_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_022_Beyond_Count_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_023_Beyond_InfoFare_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_024_Beyond_Fare_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_025_Beyond_Declare_Fare_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_026_All_Input_Beyond_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_027_Weight_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_028_Volume_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_029_Count_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_030_InfoFare_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_031_Fare_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_032_Declare_Fare_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_033_All_Input_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_034_All_For_Weight_CriticalMin_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_035_All_For_Weight_CriticalMax_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_036_All_For_Volume_CriticalMin_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_037_All_For_Weight_CriticalMax_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_038_Clear_All_Weight_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_039_Clear_All_Volume_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_001_NotLogin_FindCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_002_NotLogin_FindGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_003_NotLogin_MyOrders_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_004_NotLogin_MyGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_005_NotLogin_TopCheck_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_006_NotLogin_UI_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_007_NotLogin_FreeSend_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_008_NotLogin_QuickSearch_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_009_NotLogin_More_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_010_NotLogin_GoodsFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_011_NotLogin_GoodsLoc_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_012_NotLogin_CarsFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_100_Login_TopCheck_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPage_001_UI_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_002_Login_Success_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_003_Fail_All_Empty_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_004_Fail_Only_Username_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_005_Fail_Only_Password_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_006_Fail_Incorrect_Username_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_007_Fail_Incorrect_Password_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_008_EXIT_After_Login_Test.java</t>
+  </si>
+  <si>
+    <t>发布一条所有信息都填写的货源（重货或设备），并验证是否发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布一条所有信息都填写的货源（抛货），并验证是否发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布一条只输入了必填信息的货源（重货或设备），并验证是否发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布一条只输入了必填信息的货源（抛货），并验证是否发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物类型选择是设备的时候，不输入任何内容，点击发布货源按钮，不应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物类型选择是重货的时候，不输入任何内容，点击发布货源按钮，不应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物类型选择是抛货的时候，不输入任何内容，点击发布货源按钮，不应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了发货地不输入，其他都输入，点击发布货源，应该发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了收货地不输入，其他都输入，点击发布货源，应该发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了货物名称不输入，其他都输入，点击发布货源，应该发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入货物重量，其他都输入，点击发布货源，应该发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入货物体积，其他都输入，点击发布货源，应该发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布一条所有信息都填写的货源（重货或设备）但货物详细信息不填写，并验证是否发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布一条所有信息都填写的货源（抛货）但货物详细信息不填写，并验证是否发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查所有的货物名称是不是和需求定义的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查所有的车型是不是和需求定义的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查所有车长是不是和需求定义的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查货源详细描述框的字数统计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对直辖市、特别行政区之间的货源发布检查（是否发布成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最大吨位的时候发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最大体积的时候发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最大件数的时候发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最大声明价值的时候发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最大信息费的时候发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最大运费的时候发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的输入超过最大值时发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物重量输入0的时候发布货源失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物体积输入0的时候发布货源失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物件数输入0的时候发布货源失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物运费输入0的时候发布货源失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物信息费输入0的时候发布货源失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物声明价值输入0的时候发布货源失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的输入0时发布货源失败检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值：发布货源（重货或设备），所有输入输入最小值，应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值：发布货源（抛货），所有输入输入最大值，应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值：发布货源（重货或设备），所有输入输入最大值，应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值：发布货源（抛货），所有输入输入最小值，应该发布货源成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入了所有货源（重货或设备）信息后，点击清空按钮，应该全部清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入了所有货源（抛货）信息后，点击清空按钮，应该全部清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGoodsPage_001_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_002_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_003_GoodsNoOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_004_OriginalCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_005_TargetCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_006_GoodsNameOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_007_StartWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_008_EndWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_009_AllWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_010_StartVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_011_EndVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_012_AllVolumeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_013_StartDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_014_EndDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_015_AllDateDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>我的货源页面UI和文本检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：所有搜索框都输入，点击搜索可以搜索到指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输货源编号，进行搜索，可以搜索出指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入货物发货地，进行搜索，可以搜索出指定的发货地货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入货物收货地，进行搜索，可以搜索出指定的收货地货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入货物名称，进行搜索，可以搜索出指定的货物名的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入开始吨位，搜索出来货源吨位应该大于等于开始吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入结束吨位，搜索出来货源吨位应该小于等于结束吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入开始容积，搜索出来货源吨位应该大于等于开始容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入结束容积，搜索出来货源吨位应该小于等于结束容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入开始和结束吨位，搜索出来的货源应该在开始和结束吨位之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入开始和结束容积，搜索出来的货源应该在开始和结束容积之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入货源发布时间（开始），搜索出来的货源的发布时间应该大于等于这个输入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入货源发布时间（结束），搜索出来的货源的发布时间应该小于等于这个输入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入货源发布时间（开始和结束），搜索出来的货源的发布时间应该在这2个时间之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_001_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_015_FavoriteCarsWithNoSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_016_FavoriteCarsWithSearch_Test.java</t>
+  </si>
+  <si>
+    <t>找车源页面UI和文本检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在默认车源列表上，根据车牌号收藏货源，并判断是否收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在搜索之后的车源列表上，根据车牌号收藏货源，并判断是否收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在未登录的情况下点击物流跟踪上的快速查询订单搜索按钮，弹出登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_015_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_014_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_013_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_012_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_011_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_010_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入货物名称，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_009_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入货车类型，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_008_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_007_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入最大车长，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_006_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入最小车长，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_005_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_004_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入收货地址，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_003_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入发货地，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_002_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,弹出查找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_001_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空数据库中该用户的全部个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_034_JdbcUpdateDeleteAddUseInfo_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_033_Success_All_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_032_Fail_TelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_031_Fail_NameIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_030_Fail_NameTelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_029_Fail_NameTelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_028_Fail_NameTelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_027_Fail_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_026_Fail_TelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_025_Fail_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_024_Fail_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_023_Fail_NameCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_022_Fail_NameIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_021_Fail_NameIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_020_Fail_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_019_Fail_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_018_Fail_NameTelIdcar_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_017_Fail_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_016_Fail_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_015_Fail_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_014_Fail_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_013_Fail_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_012_Fail_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_011_Fail_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_010_Fail_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_009_Fail_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_008_Fail_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_007_Fail_Address_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_006_Fail_Company_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_005_Fail_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_004_Fail_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_003_Fail_Name_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_002_Fail_All_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_001_UI_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空数据库中该用户的注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_012_JdbcUpdateDeleteUsername_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_011_End_Success_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_010_Fail_UssernameAndPasswordDifRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_009_Fail_PasswordDifferentRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_008_Fail_PasswordAndRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_007_Fail_UsernameAndRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_006_Fail_UsernameAndPassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_005_Fail_OnlyRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_004_Fail_OnlyPassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_003_Fail_OnlyUsername_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，全部为空，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_002_Fail_All_Empty_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_001_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_013_NotLogin_QuickSearchCars_Test</t>
+  </si>
+  <si>
+    <t>HomePage_014_NotLogin_QuickSearchGoods_Test</t>
+  </si>
+  <si>
+    <t>在未登录的情况下，点击快速找车源上的查询按钮弹出登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在未登录的情况下，点击快速找货源上的查询按钮弹出登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_015_NotLoginCheckLicense_Test</t>
+  </si>
+  <si>
+    <t>在未登录的情况下，检查车源中的驾驶证信息应该为隐藏***显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_016_NotLoginClickBackToTop_Test</t>
+  </si>
+  <si>
+    <t>未登录情况下点击返回到顶部按钮，能正常返回到顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_101_Login_FindCarsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_102_Login_FindGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_103_Login_MyGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_104_Login_MyOrdersTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 点击找车源，成功进入找车源页面</t>
+  </si>
+  <si>
+    <t>登录情况下 点击找货源，成功进入找货源页面</t>
+  </si>
+  <si>
+    <t>登录情况下 点击我的货源，成功进入我的货源页面</t>
+  </si>
+  <si>
+    <t>登录情况下 点击我的订单，成功进入我的订单页面</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_001_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_105_Login_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_106_Login_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_107_Login_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找车源操作，只输入出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找车源操作，只输入目的地，页面正确跳转到找车源界面，并且找到指定的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找车源操作，输入目的地和出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_017_CancelFavoriteCars_Test</t>
+  </si>
+  <si>
+    <t>在公共车源列表取消收藏的车源，不会弹出确认取消收藏的提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_018_DismissCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_108_Login_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找货源操作，只输入出发地，页面正确跳转到找货源界面，并且找到指定的货源</t>
+  </si>
+  <si>
+    <t>HomePage_109_Login_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找货源操作，只输入目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
+  </si>
+  <si>
+    <t>HomePage_110_Login_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_016_EditGoods_Test.java</t>
+  </si>
+  <si>
+    <t>在我的货源里面点击编辑按钮，进行货源编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGoodsPage_017_DeleteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_018_CancelDeleteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>在我的货源里删除货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的货源里删除货源，弹出的二次提示框上点击取消按钮，货源不应该被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_019_AcceptCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_000_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_001_AddMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_002_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_003_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_004_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_005_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_006_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_007_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_008_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_009_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_010_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_011_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_012_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_013_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_014_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_015_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>点击我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最小车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最大车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货车类型，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货物名称，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在我的收藏tab中，取消我的收藏为公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_111_Login_QuickSearchOrders_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找货源操作，只输入出发地和目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 进行快速查找订单，页面正确跳转到我的订单页面，并且搜索出了指定的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_002_Public_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_003_Public_FromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_004_Public_StartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_005_Public_EndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_006_Public_StartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_007_Public_CarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_008_Public_StartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_009_Public_EndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_010_Public_AllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_011_Public_StartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_012_Public_EndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_013_Public_AllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_014_Public_TargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>公共车源中：找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_020_Private_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_021_Private_FromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_022_Private_StartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_023_Private_EndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_024_Private_StartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_025_Private_CarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_026_Private_StartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_027_Private_EndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_028_Private_AllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_029_Private_StartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_030_Private_EndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_031_Private_AllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_032_Private_TargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>公共车源中：只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共车源中：只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FootPage_001_ContactUs_Test.java</t>
+  </si>
+  <si>
+    <t>FootPage_002_AboutUs_Test.java</t>
+  </si>
+  <si>
+    <t>FootPage_003_Help_Test.java</t>
+  </si>
+  <si>
+    <t>FootPage_004_COA_Test.java</t>
+  </si>
+  <si>
+    <t>点击底部公司信息，联系我们，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击底部公司信息，关于我们，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击底部公司信息，帮助中心，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击底部公司信息，帮助中心，然后点击左边的运营活动，检查页面是否正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_033_Public_SortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_034_Public_SortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_035_Public_SortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_036_Public_SortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按信用等级排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按车长排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按信载重排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车源-公共车源中，按体积排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_037_Private_SortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_038_Private_SortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_039_Private_SortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_040_Private_SortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按信用等级排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按车长排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按信载重排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-公共车源中，按体积排序的用例（升序和降序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_002_SendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_003_SendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_004_SendToAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_005_OrdersDateStart_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_006_OrdersDateEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_007_OrdersDateStartAndEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_008_OrdersNum_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_009_GoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_010_Driver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_011_Receiver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_012_HarvestCompany_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，检查我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单开始时间，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单结束时间，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单的时间范围，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地和收获地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写承运司机，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收货人，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_017_CreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_018_CarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_020_CarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的默认排序功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_016_DefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照信用等级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车长排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_019_CarWeightSort_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车重排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照体积排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_501_Login_Enterprise_TopCheck_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_502_Login_Enterprise_FindGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_503_Login_Enterprise_FindCarsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_504_Login_Enterprise_MyOrdersTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_505_Login_Enterprise_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_506_Login_Enterprise_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_507_Login_Enterprise_QuickSearchCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_508_Login_Enterprise_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_509_Login_Enterprise_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_510_Login_Enterprise_QuickSearchGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_511_Login_Enterprise_QuickSearchOrders_Test.java</t>
+  </si>
+  <si>
     <t>在登录的情况下检查首页顶部天气，城市，日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查登陆界面的UI、文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名和密码都不输入点击登录，登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入用户名不输入密码点击登录，登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入密码不输入用户名点击登陆，登陆失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入一个数据库中不存在的用户名，输入正确/不正确密码点击登陆，登陆失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入正确的用户名，但是密码不正确，点击登录，登陆失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆成功以后，验证是否能退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功登陆测试用例并检查用户名相关信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendGoodsPage_001_All_Valid_Data_For_Weight_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_002_All_Valid_Data_For_Volume_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_003_All_Valid_Required_Data_For_Weight_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_004_All_Valid_Required_Data_For_Volume_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_005_All_Empty_Data_Fail_Weight_Device_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_006_All_Empty_Data_Fail_Weight_Heavy_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_007_All_Empty_Data_Fail_Volume_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_008_Original_Empty_Data_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_009_Receipt_Empty_Data_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_010_GoodsName_Empty_Data_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_011_Weight_Empty_Data_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_012_Volume_Empty_Data_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_013_All_Valid_Data_For_Weight_Detail_Empty_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_014_All_Valid_Data_For_Volume_Detail_Empty_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_015_CheckGoodsAllNames_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_016_CheckAllCarTypes_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_017_CheckAllCarLength_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_018_Goods_Memo_Count_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_019_All_Valid_Data_For_SpecialZone_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_020_Beyond_Weight_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_021_Beyond_Volume_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_022_Beyond_Count_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_023_Beyond_InfoFare_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_024_Beyond_Fare_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_025_Beyond_Declare_Fare_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_026_All_Input_Beyond_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_027_Weight_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_028_Volume_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_029_Count_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_030_InfoFare_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_031_Fare_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_032_Declare_Fare_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_033_All_Input_Zero_Fail_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_034_All_For_Weight_CriticalMin_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_035_All_For_Weight_CriticalMax_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_036_All_For_Volume_CriticalMin_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_037_All_For_Weight_CriticalMax_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_038_Clear_All_Weight_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_039_Clear_All_Volume_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_001_NotLogin_FindCars_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_002_NotLogin_FindGoods_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_003_NotLogin_MyOrders_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_004_NotLogin_MyGoods_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_005_NotLogin_TopCheck_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_006_NotLogin_UI_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_007_NotLogin_FreeSend_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_008_NotLogin_QuickSearch_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_009_NotLogin_More_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_010_NotLogin_GoodsFav_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_011_NotLogin_GoodsLoc_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_012_NotLogin_CarsFav_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_100_Login_TopCheck_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginPage_001_UI_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_002_Login_Success_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_003_Fail_All_Empty_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_004_Fail_Only_Username_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_005_Fail_Only_Password_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_006_Fail_Incorrect_Username_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_007_Fail_Incorrect_Password_Test.java</t>
-  </si>
-  <si>
-    <t>LoginPage_008_EXIT_After_Login_Test.java</t>
-  </si>
-  <si>
-    <t>发布一条所有信息都填写的货源（重货或设备），并验证是否发布成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布一条所有信息都填写的货源（抛货），并验证是否发布成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布一条只输入了必填信息的货源（重货或设备），并验证是否发布成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布一条只输入了必填信息的货源（抛货），并验证是否发布成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物类型选择是设备的时候，不输入任何内容，点击发布货源按钮，不应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物类型选择是重货的时候，不输入任何内容，点击发布货源按钮，不应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物类型选择是抛货的时候，不输入任何内容，点击发布货源按钮，不应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了发货地不输入，其他都输入，点击发布货源，应该发布失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了收货地不输入，其他都输入，点击发布货源，应该发布失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了货物名称不输入，其他都输入，点击发布货源，应该发布失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入货物重量，其他都输入，点击发布货源，应该发布失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入货物体积，其他都输入，点击发布货源，应该发布失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布一条所有信息都填写的货源（重货或设备）但货物详细信息不填写，并验证是否发布成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布一条所有信息都填写的货源（抛货）但货物详细信息不填写，并验证是否发布成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查所有的货物名称是不是和需求定义的一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查所有的车型是不是和需求定义的一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查所有车长是不是和需求定义的一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查货源详细描述框的字数统计功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对直辖市、特别行政区之间的货源发布检查（是否发布成功）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过最大吨位的时候发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过最大体积的时候发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过最大件数的时候发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过最大声明价值的时候发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过最大信息费的时候发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过最大运费的时候发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的输入超过最大值时发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物重量输入0的时候发布货源失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物体积输入0的时候发布货源失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物件数输入0的时候发布货源失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物运费输入0的时候发布货源失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物信息费输入0的时候发布货源失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物声明价值输入0的时候发布货源失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的输入0时发布货源失败检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界值：发布货源（重货或设备），所有输入输入最小值，应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界值：发布货源（抛货），所有输入输入最大值，应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界值：发布货源（重货或设备），所有输入输入最大值，应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界值：发布货源（抛货），所有输入输入最小值，应该发布货源成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入了所有货源（重货或设备）信息后，点击清空按钮，应该全部清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入了所有货源（抛货）信息后，点击清空按钮，应该全部清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyGoodsPage_001_UITextCheck_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_002_AllDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_003_GoodsNoOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_004_OriginalCityOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_005_TargetCityOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_006_GoodsNameOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_007_StartWeightOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_008_EndWeightOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_009_AllWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_010_StartVolumeOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_011_EndVolumeOnlyDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_012_AllVolumeDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_013_StartDateDataOnlyInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_014_EndDateDataOnlyInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_015_AllDateDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>我的货源页面UI和文本检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：所有搜索框都输入，点击搜索可以搜索到指定的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输货源编号，进行搜索，可以搜索出指定的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入货物发货地，进行搜索，可以搜索出指定的发货地货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入货物收货地，进行搜索，可以搜索出指定的收货地货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入货物名称，进行搜索，可以搜索出指定的货物名的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入开始吨位，搜索出来货源吨位应该大于等于开始吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入结束吨位，搜索出来货源吨位应该小于等于结束吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入开始容积，搜索出来货源吨位应该大于等于开始容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入结束容积，搜索出来货源吨位应该小于等于结束容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入开始和结束吨位，搜索出来的货源应该在开始和结束吨位之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入开始和结束容积，搜索出来的货源应该在开始和结束容积之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入货源发布时间（开始），搜索出来的货源的发布时间应该大于等于这个输入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入货源发布时间（结束），搜索出来的货源的发布时间应该小于等于这个输入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入货源发布时间（开始和结束），搜索出来的货源的发布时间应该在这2个时间之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_001_UITextCheck_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_015_FavoriteCarsWithNoSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_016_FavoriteCarsWithSearch_Test.java</t>
-  </si>
-  <si>
-    <t>找车源页面UI和文本检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在默认车源列表上，根据车牌号收藏货源，并判断是否收藏成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在搜索之后的车源列表上，根据车牌号收藏货源，并判断是否收藏成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在未登录的情况下点击物流跟踪上的快速查询订单搜索按钮，弹出登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_015_ValidAllVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_014_ValidMaxVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_013_ValidMinVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_012_ValidAllWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_011_ValidMaxWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_010_ValidMinWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入货物名称，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_009_ValidGoodsName_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入货车类型，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_008_ValidCarType_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入车长的一个区间，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_007_ValidAllCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入最大车长，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_006_ValidMaxCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入最小车长，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_005_ValidMinCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_004_ValidSendFromAndSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入收货地址，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_003_ValidSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在搜索条件下输入发货地，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_002_ValidSendFrom_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击首页查找货源tab,弹出查找货源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_001_UITestCheck_Test.java</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空数据库中该用户的全部个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_034_JdbcUpdateDeleteAddUseInfo_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_033_Success_All_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_032_Fail_TelIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_031_Fail_NameIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_030_Fail_NameTelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_029_Fail_NameTelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_028_Fail_NameTelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_027_Fail_IdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_026_Fail_TelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_025_Fail_TelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_024_Fail_TelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_023_Fail_NameCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_022_Fail_NameIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_021_Fail_NameIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_020_Fail_NameTelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_019_Fail_NameTelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_018_Fail_NameTelIdcar_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_017_Fail_CompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_016_Fail_IdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_015_Fail_IdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_014_Fail_TelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_013_Fail_TelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_012_Fail_TelIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_011_Fail_NameAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_010_Fail_NameCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_009_Fail_NameIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_008_Fail_NameTel_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_007_Fail_Address_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_006_Fail_Company_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_005_Fail_Idcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_004_Fail_Tel_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_003_Fail_Name_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_002_Fail_All_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_001_UI_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空数据库中该用户的注册信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_012_JdbcUpdateDeleteUsername_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_011_End_Success_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_010_Fail_UssernameAndPasswordDifRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_009_Fail_PasswordDifferentRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写登录密码、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_008_Fail_PasswordAndRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_007_Fail_UsernameAndRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_006_Fail_UsernameAndPassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_005_Fail_OnlyRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写登录密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_004_Fail_OnlyPassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_003_Fail_OnlyUsername_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，全部为空，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_002_Fail_All_Empty_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_001_UICheck_Test.java</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_013_NotLogin_QuickSearchCars_Test</t>
-  </si>
-  <si>
-    <t>HomePage_014_NotLogin_QuickSearchGoods_Test</t>
-  </si>
-  <si>
-    <t>在未登录的情况下，点击快速找车源上的查询按钮弹出登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在未登录的情况下，点击快速找货源上的查询按钮弹出登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_015_NotLoginCheckLicense_Test</t>
-  </si>
-  <si>
-    <t>在未登录的情况下，检查车源中的驾驶证信息应该为隐藏***显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_016_NotLoginClickBackToTop_Test</t>
-  </si>
-  <si>
-    <t>未登录情况下点击返回到顶部按钮，能正常返回到顶部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_101_Login_FindCarsTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_102_Login_FindGoodsTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_103_Login_MyGoodsTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_104_Login_MyOrdersTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下 点击找车源，成功进入找车源页面</t>
-  </si>
-  <si>
-    <t>登录情况下 点击找货源，成功进入找货源页面</t>
-  </si>
-  <si>
-    <t>登录情况下 点击我的货源，成功进入我的货源页面</t>
-  </si>
-  <si>
-    <t>登录情况下 点击我的订单，成功进入我的订单页面</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_001_UITextCheck_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_105_Login_QuickSearchCars_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_106_Login_QuickSearchCars_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_107_Login_QuickSearchCars_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找车源操作，只输入出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找车源操作，只输入目的地，页面正确跳转到找车源界面，并且找到指定的车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找车源操作，输入目的地和出发地，页面正确跳转到找车源界面，并且找到指定的车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_017_CancelFavoriteCars_Test</t>
-  </si>
-  <si>
-    <t>在公共车源列表取消收藏的车源，不会弹出确认取消收藏的提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_018_DismissCancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点击取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我的收藏车源列表取消收藏的车源，弹出确认取消收藏的提示，然后点确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_108_Login_QuickSearchGoods_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找货源操作，只输入出发地，页面正确跳转到找货源界面，并且找到指定的货源</t>
-  </si>
-  <si>
-    <t>HomePage_109_Login_QuickSearchGoods_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找货源操作，只输入目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
-  </si>
-  <si>
-    <t>HomePage_110_Login_QuickSearchGoods_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_016_EditGoods_Test.java</t>
-  </si>
-  <si>
-    <t>在我的货源里面点击编辑按钮，进行货源编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyGoodsPage_017_DeleteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_018_CancelDeleteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>在我的货源里删除货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我的货源里删除货源，弹出的二次提示框上点击取消按钮，货源不应该被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_019_AcceptCancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_000_UITestCheck_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_001_AddMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_002_ValidSendFrom_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_003_ValidSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_004_ValidSendFromAndSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_005_ValidMinCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_006_ValidMaxCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_007_ValidAllCarLong_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_008_ValidCarType_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_009_ValidGoodsName_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_010_ValidMinWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_011_ValidMaxWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_012_ValidAllWeightData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_013_ValidMinVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_014_ValidMaxVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_015_ValidAllVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>点击我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入收货地址，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最小车长，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入最大车长，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入车长的一个区间，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货车类型，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下输入货物名称，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，点击我的收藏，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
-  </si>
-  <si>
-    <t>已登录的情况下，在我的收藏tab中，取消我的收藏为公共货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_111_Login_QuickSearchOrders_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找货源操作，只输入出发地和目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 进行快速查找订单，页面正确跳转到我的订单页面，并且搜索出了指定的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_002_Public_AllDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_003_Public_FromDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_004_Public_StartCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_005_Public_EndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_006_Public_StartEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_007_Public_CarTypeDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_008_Public_StartCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_009_Public_EndCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_010_Public_AllCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_011_Public_StartCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_012_Public_EndCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_013_Public_AllCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_014_Public_TargetCityDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>公共车源中：找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_020_Private_AllDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_021_Private_FromDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_022_Private_StartCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_023_Private_EndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_024_Private_StartEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_025_Private_CarTypeDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_026_Private_StartCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_027_Private_EndCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_028_Private_AllCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_029_Private_StartCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_030_Private_EndCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_031_Private_AllCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_032_Private_TargetCityDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>公共车源中：只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共车源中：只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：找车源页面输入所有搜索值，进行搜索，可以搜索到指定的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入车源的出发地，筛选出来的车源出发地必须和输入的车源出发地一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入车长（开始），搜索出来的车源信息中的车长，应该大于等于该车长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入车长（结束），搜索出来的车源信息中的车长，应该小于等于该车长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入车长（开始和结束），搜索出来的车源信息中的车长，应该在这2个车长之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：输入指定车型，搜索出来的车源的车型应该和指定车型一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：输入车源目的地，搜索出来的车源信息中的目的，应该和输入的目的地一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入容积（开始和结束），搜索出来的车源信息中的容积，应该在这2个容积之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入容积（结束），搜索出来的车源信息中的容积，应该小于等于该容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入容积（开始），搜索出来的车源信息中的容积，应该大于等于该容积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入吨位（开始和结束），搜索出来的车源信息中的载重，应该在这2个吨位之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入吨位（结束），搜索出来的车源信息中的载重，应该小于等于该吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏：只输入吨位（开始），搜索出来的车源信息中的载重，应该大于等于该吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FootPage_001_ContactUs_Test.java</t>
-  </si>
-  <si>
-    <t>FootPage_002_AboutUs_Test.java</t>
-  </si>
-  <si>
-    <t>FootPage_003_Help_Test.java</t>
-  </si>
-  <si>
-    <t>FootPage_004_COA_Test.java</t>
-  </si>
-  <si>
-    <t>点击底部公司信息，联系我们，检查页面是否正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击底部公司信息，关于我们，检查页面是否正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击底部公司信息，帮助中心，检查页面是否正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击底部公司信息，帮助中心，然后点击左边的运营活动，检查页面是否正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_033_Public_SortByCredit_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_034_Public_SortByCarLenght_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_035_Public_SortByCarWeight_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_036_Public_SortByCarVolume_Test.java</t>
-  </si>
-  <si>
-    <t>我的车源-公共车源中，按信用等级排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的车源-公共车源中，按车长排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的车源-公共车源中，按信载重排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的车源-公共车源中，按体积排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_037_Private_SortByCarVolume_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_038_Private_SortByCredit_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_039_Private_SortByCarLenght_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_040_Private_SortByCarWeight_Test.java</t>
-  </si>
-  <si>
-    <t>我的收藏-公共车源中，按信用等级排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏-公共车源中，按车长排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏-公共车源中，按信载重排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏-公共车源中，按体积排序的用例（升序和降序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyOrdersPage_002_SendFrom_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_003_SendTo_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_004_SendToAndSendTo_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_005_OrdersDateStart_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_006_OrdersDateEnd_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_007_OrdersDateStartAndEnd_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_008_OrdersNum_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_009_GoodsName_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_010_Driver_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_011_Receiver_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_012_HarvestCompany_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的状态下，检查我的订单UI、文本测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写收货地，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写订单开始时间，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写订单结束时间，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写订单的时间范围，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写发货地和收获地，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写承运司机，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写收货人，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_017_CreditSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_018_CarLengthSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_020_CarVolumeSort_Test.java</t>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的默认排序功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_016_DefaultSort_Test.java</t>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照信用等级排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照车长排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePublicGoods_019_CarWeightSort_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照车重排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照体积排序</t>
+    <t>企业版账户登录之后，顶部相关信息（天气，城市，日期）的检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，点击找货源tab，正常进入找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，点击找车源tab，正常进入找车源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，点击我的订单tab，正常进入我的订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 搜索车源（只输入出发地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 搜索车源（只输入目的地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 搜索车源（输入出发地和目的地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 搜索货源（只输入出发地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 搜索货源（只输入目的地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 搜索货源（输入出发地和目的地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户登录之后，在首页进行快速搜索 - 货物跟踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2052,15 +2129,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="57.875" customWidth="1"/>
     <col min="2" max="2" width="51.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2074,7 +2151,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2082,7 +2159,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2090,7 +2167,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2098,7 +2175,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2106,7 +2183,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -2114,7 +2191,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -2122,7 +2199,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -2130,15 +2207,15 @@
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -2146,7 +2223,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2154,7 +2231,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -2162,7 +2239,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -2170,178 +2247,222 @@
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
+      <c r="A22" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>293</v>
+        <v>471</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>294</v>
+        <v>472</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>298</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>296</v>
+        <v>474</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>300</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>305</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>303</v>
+        <v>476</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>306</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>304</v>
+        <v>477</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>307</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>314</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>315</v>
+        <v>479</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>316</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>317</v>
+        <v>480</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>362</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -2409,8 +2530,7 @@
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
@@ -2435,9 +2555,6 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2462,7 +2579,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2470,34 +2587,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2531,66 +2648,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2927,106 +3044,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -3291,314 +3408,314 @@
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -4055,146 +4172,146 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -4359,322 +4476,322 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -4687,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4699,133 +4816,133 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -4834,178 +4951,178 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -5159,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -5167,274 +5284,274 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -5603,7 +5720,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -5611,98 +5728,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="498">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,7 +1721,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业版账户登录之后，在首页进行快速搜索 - 货物跟踪</t>
+    <t>HomePage_512_Login_Enterprise_QuickSearchOrders_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_513_Login_Enterprise_QuickSearchOrders_Test.java</t>
+  </si>
+  <si>
+    <t>企业账户登录情况下 进行快速查找自有车队订单中的 自己发布的货源 产生的订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户登录情况下 进行快速查找 自有车队订单，从货源平台预定的产生的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户登录情况下 进行快速查找 社会车辆产生的订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2132,7 +2146,7 @@
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2457,21 +2471,29 @@
         <v>492</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="508">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1736,6 +1736,41 @@
   </si>
   <si>
     <t>企业账户登录情况下 进行快速查找 社会车辆产生的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPage_009_Checkbox_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_501_Enterprise_Login_Success_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_502_Enterprise_ExitAfterLogin_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_503_Enterprise_FailOnlyUsername_Test.java</t>
+  </si>
+  <si>
+    <t>LoginPage_504_Enterprise_FailIncorrectPassword_Test.java</t>
+  </si>
+  <si>
+    <t>登陆界面checkbox是不是可以勾选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户退出登陆操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户登陆失败-只输入用户名不输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户登陆失败-输入正确用户名，密码输入错误,提示“用户名或密码错误,请重新登录!”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -2650,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2733,24 +2768,44 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+      <c r="A13" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="516">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1771,6 +1771,34 @@
   </si>
   <si>
     <t>企业账户登陆失败-输入正确用户名，密码输入错误,提示“用户名或密码错误,请重新登录!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_514_Enterprise_Login_MoreGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_515_Enterprise_Login_MoreCars_Test.java</t>
+  </si>
+  <si>
+    <t>企业账户登录情况下， 首页- 公共货源上的更多链接 进入找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户登录情况下， 首页-公共车源上的更多链接 进入找车源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_112_Login_MoreGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_113_Login_MoreCars_Test.java</t>
+  </si>
+  <si>
+    <t>标准账户登录情况下， 首页- 公共货源上的更多链接 进入找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准账户登录情况下， 首页-公共车源上的更多链接 进入找车源界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2178,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2422,133 +2450,149 @@
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>485</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5"/>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -2587,13 +2631,16 @@
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
@@ -2612,6 +2659,15 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2685,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="556">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1799,6 +1799,170 @@
   </si>
   <si>
     <t>标准账户登录情况下， 首页-公共车源上的更多链接 进入找车源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_501_Enterprise_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_502_Enterprise_PublicAllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_503_Enterprise_PublicFromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_504_Enterprise_PublicStartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_505_Enterprise_PublicEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_506_Enterprise_PublicStartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_507_Enterprise_PublicCarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_508_Enterprise_PublicStartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_509_Enterprise_PublicEndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_510_Enterprise_PublicAllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_511_Enterprise_PublicStartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_512_Enterprise_PublicEndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_513_Enterprise_PublicAllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_514_Enterprise_PublicTargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_515_Enterprise_FavoriteCarsWithNoSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_516_Enterprise_FavoriteCarsWithSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_520_Enterprise_PrivateAllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_521_Enterprise_PrivateFromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_522_Enterprise_PrivateStartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_523_Enterprise_PrivateEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>企业账户下，找车源页面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入所有条件，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入出发地，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入开始车长，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入结束车长，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入开始和结束车长，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入车型，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入开始车重，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入结束车重，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入开始和结束车重，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入开始体积，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入结束体积，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入开始和结束体积，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源模块，输入目的地，进行搜索，检查搜索出来的数据是不是符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源处，不进行搜索，去收藏车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源处，进行搜索之后，去收藏车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，输入所有输入条件进行搜索并且搜索出来的车源符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>企业账户下，找车源-我的收藏模块，输入</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出发地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行搜索并且搜索出来的车源符合条件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，输入开始车长进行搜索并且搜索出来的车源符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，输入结束车长进行搜索并且搜索出来的车源符合条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1806,7 +1970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1827,6 +1991,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2208,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4587,10 +4760,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4927,9 +5100,170 @@
         <v>437</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>516</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>520</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>521</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>523</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>524</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>530</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>532</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>533</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>534</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>535</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="631">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindGoodsPagePublicGoods_015_ValidAllVolumeData_Test.java</t>
   </si>
   <si>
@@ -632,10 +628,6 @@
     <t>FindGoodsPagePublicGoods_008_ValidCarType_Test.java</t>
   </si>
   <si>
-    <t>已登录的情况下，在搜索条件下输入车长的一个区间，检查搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindGoodsPagePublicGoods_007_ValidAllCarLong_Test.java</t>
   </si>
   <si>
@@ -681,6 +673,321 @@
     <t>FindGoodsPagePublicGoods_001_UITestCheck_Test.java</t>
   </si>
   <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空数据库中该用户的全部个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_034_JdbcUpdateDeleteAddUseInfo_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_033_Success_All_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_032_Fail_TelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_031_Fail_NameIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_030_Fail_NameTelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_029_Fail_NameTelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_028_Fail_NameTelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_027_Fail_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_026_Fail_TelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_025_Fail_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_024_Fail_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_023_Fail_NameCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_022_Fail_NameIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_021_Fail_NameIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_020_Fail_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_019_Fail_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_018_Fail_NameTelIdcar_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_017_Fail_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_016_Fail_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_015_Fail_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_014_Fail_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_013_Fail_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_012_Fail_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_011_Fail_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_010_Fail_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_009_Fail_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_008_Fail_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_007_Fail_Address_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_006_Fail_Company_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_005_Fail_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>AddUserInfoPage_004_Fail_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_003_Fail_Name_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_002_Fail_All_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserInfoPage_001_UI_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空数据库中该用户的注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_012_JdbcUpdateDeleteUsername_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_011_End_Success_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_010_Fail_UssernameAndPasswordDifRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_009_Fail_PasswordDifferentRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_008_Fail_PasswordAndRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_007_Fail_UsernameAndRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_006_Fail_UsernameAndPassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写确认密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_005_Fail_OnlyRepassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写登录密码，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_004_Fail_OnlyPassword_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，填写用户名称，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_003_Fail_OnlyUsername_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，全部为空，点击提交按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_002_Fail_All_Empty_Test.java</t>
+  </si>
+  <si>
+    <t>未登录的情况下，点击首页注册按钮，检车注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_001_UICheck_Test.java</t>
+  </si>
+  <si>
     <t>用例描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,325 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清空数据库中该用户的全部个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_034_JdbcUpdateDeleteAddUseInfo_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_033_Success_All_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_032_Fail_TelIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_031_Fail_NameIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_030_Fail_NameTelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_029_Fail_NameTelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_028_Fail_NameTelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_027_Fail_IdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_026_Fail_TelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_025_Fail_TelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_024_Fail_TelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_023_Fail_NameCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_022_Fail_NameIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_021_Fail_NameIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_020_Fail_NameTelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_019_Fail_NameTelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_018_Fail_NameTelIdcar_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_017_Fail_CompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_016_Fail_IdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_015_Fail_IdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_014_Fail_TelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_013_Fail_TelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_012_Fail_TelIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_011_Fail_NameAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_010_Fail_NameCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_009_Fail_NameIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_008_Fail_NameTel_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_007_Fail_Address_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_006_Fail_Company_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_005_Fail_Idcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_004_Fail_Tel_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_003_Fail_Name_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_002_Fail_All_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_001_UI_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空数据库中该用户的注册信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_012_JdbcUpdateDeleteUsername_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_011_End_Success_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_010_Fail_UssernameAndPasswordDifRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_009_Fail_PasswordDifferentRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写登录密码、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_008_Fail_PasswordAndRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_007_Fail_UsernameAndRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_006_Fail_UsernameAndPassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_005_Fail_OnlyRepassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写登录密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_004_Fail_OnlyPassword_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_003_Fail_OnlyUsername_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，全部为空，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_002_Fail_All_Empty_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_001_UICheck_Test.java</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HomePage_013_NotLogin_QuickSearchCars_Test</t>
   </si>
   <si>
@@ -1192,18 +1180,10 @@
     <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
   </si>
   <si>
-    <t>点击我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的情况下，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
   </si>
   <si>
@@ -1564,10 +1544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的状态下，填写收货地，检查该状态下搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1588,10 +1564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1604,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindGoodsPagePublicGoods_017_CreditSort_Test.java</t>
   </si>
   <si>
@@ -1617,10 +1585,6 @@
     <t>FindGoodsPagePublicGoods_020_CarVolumeSort_Test.java</t>
   </si>
   <si>
-    <t>找货源模块下，公共货源上的默认排序功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindGoodsPagePublicGoods_016_DefaultSort_Test.java</t>
   </si>
   <si>
@@ -1637,10 +1601,6 @@
   </si>
   <si>
     <t>找货源模块下，公共货源上的按照车重排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照体积排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1963,6 +1923,297 @@
   </si>
   <si>
     <t>企业账户下，找车源-我的收藏模块，输入结束车长进行搜索并且搜索出来的车源符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是标准版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入最小车长，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入货车类型，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的默认排序功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车重排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照体积排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是企业版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_501_PublicGoods_Enterprise_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_502_PublicGoods_Enterprise_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入发货地，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_503_PublicGoods_Enterprise_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_504_PublicGoods_Enterprise_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_505_PublicGoods_Enterprise_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_506_PublicGoods_Enterprise_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入最大车长，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_507_PublicGoods_Enterprise_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_508_PublicGoods_Enterprise_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_509_PublicGoods_Enterprise_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_510_PublicGoods_Enterprise_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_511_PublicGoods_Enterprise_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_512_PublicGoods_Enterprise_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_513_PublicGoods_Enterprise_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_514_PublicGoods_Enterprise_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_515_PublicGoods_Enterprise_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_516_PublicGoods_Enterprise_DefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_517_PublicGoods_Enterprise_CreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_518_PublicGoods_Enterprise_CarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车长排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_519_PublicGoods_Enterprise_CarWeightSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_520_PublicGoods_Enterprise_CarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_600_PrivateGoods_Enterprise_UITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_601_PrivateGoods_Enterprise_AddMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_602_PrivateGoods_Enterprise_ValidSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_603_PrivateGoods_Enterprise_ValidSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_604_PrivateGoods_Enterprise_ValidSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_605_PrivateGoods_Enterprise_ValidMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_606_PrivateGoods_Enterprise_ValidMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_607_PrivateGoods_Enterprise_ValidAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_608_PrivateGoods_Enterprise_ValidCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_609_PrivateGoods_Enterprise_ValidGoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_610_PrivateGoods_Enterprise_ValidMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_611_PrivateGoods_Enterprise_ValidMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_612_PrivateGoods_Enterprise_ValidAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_613_PrivateGoods_Enterprise_ValidMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_614_PrivateGoods_Enterprise_ValidMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_615_PrivateGoods_Enterprise_ValidAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_616_PrivateGoods_Enterprise_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是企业版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_501_Enterprise_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，检查我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_502_Enterprise_SendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_503_Enterprise_SendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_504_Enterprise_SendToAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地和收获地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_505_Enterprise_OrdersDateStart_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单开始时间，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_506_Enterprise_OrdersDateEnd_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单结束时间，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_507_Enterprise_OrdersDateStartAndEnd_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单的时间范围，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_508_Enterprise_OrdersNum_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_509_Enterprise_GoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_510_Enterprise_Driver_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写承运司机，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_511_Enterprise_Receiver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_512_Enterprise_HarvestCompany_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2002,7 +2253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2018,6 +2269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,6 +2332,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2093,7 +2361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2135,7 +2403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2170,7 +2438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2497,34 +2765,34 @@
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -2532,111 +2800,111 @@
         <v>72</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -2649,122 +2917,122 @@
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -2865,7 +3133,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2873,34 +3141,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2998,42 +3266,42 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -3350,106 +3618,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -4598,26 +4866,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -4762,7 +5030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -4790,106 +5058,106 @@
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -4910,354 +5178,354 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5269,35 +5537,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="1" max="1" width="74.75" customWidth="1"/>
     <col min="2" max="2" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>188</v>
+        <v>546</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>184</v>
       </c>
@@ -5305,18 +5571,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>180</v>
       </c>
@@ -5324,7 +5587,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>178</v>
       </c>
@@ -5332,15 +5595,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>174</v>
       </c>
@@ -5348,377 +5611,563 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="B10" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="B12" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="B13" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="B15" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>324</v>
+        <v>456</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>342</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>344</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>345</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>328</v>
+        <v>455</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>346</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>348</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>349</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>465</v>
+        <v>332</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>464</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>461</v>
+        <v>333</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>466</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>462</v>
+        <v>334</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>467</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>468</v>
+        <v>335</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>469</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>470</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>353</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5743,7 +6192,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -5751,274 +6200,274 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -6173,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6187,106 +6636,214 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>188</v>
+        <v>604</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" t="s">
-        <v>449</v>
-      </c>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B17" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>616</v>
+      </c>
+      <c r="B20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>622</v>
+      </c>
+      <c r="B23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>626</v>
+      </c>
+      <c r="B26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>628</v>
+      </c>
+      <c r="B27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>629</v>
+      </c>
+      <c r="B28" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="675">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2216,12 +2216,168 @@
     <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>企业版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_517_Enterprise_CancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_518_Enterprise_DismissCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_519_Enterprise_AcceptCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>企业账户下，在找车源-公共车源模块，取消收藏车源不会弹出确认弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，在找车源-收藏车源模块，取消收藏车源会弹出确认取消收藏的提示框，然后在此提示框上点击取消按钮，取消收藏不会成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，在找车源-收藏车源模块，取消收藏车源会弹出确认取消收藏的提示框，然后在此提示框上点击确定按钮，取消收藏会成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_524_Enterprise_PrivateStartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_525_Enterprise_PrivateCarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_526_Enterprsie_PrivateStartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_527_Enterprise_PrivateEndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_528_Enterprise_PrivateAllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_529_Enterprise_PrivateStartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_530_Enterprise_PrivateEndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_531_Enterprise_PrivateAllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_532_Enterprise_PrivateTargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_533_Enterprise_PublicSortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_534_Enterprise_PublicSortByCarLength_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_535_Enterprise_PublicSortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_536_Enterprise_PublicSortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_537_Enterprise_PrivateSortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_538_Enterprise_PrivateSortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_539_Enterprise_PrivateSortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_540_Enterprise_PrivateSortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入结束车长，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入车型，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入开始车重，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入结束车重，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，输入开始和结束车重，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入开始车的体积，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入结束车的体积，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，输入开始和结束车的体积，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，只输入目的地，进行搜索并且搜索出来的结果符合搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-公共车源模块，按照信用等级排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-公共车源模块，按照车长排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-公共车源模块，按照车重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-公共车源模块，按照体积排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，按照体积排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，按照信用等级排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，按照车长排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账户下，找车源-我的收藏模块，按照车重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,8 +2408,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2278,8 +2443,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2302,11 +2473,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,6 +2540,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2361,7 +2564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2403,7 +2606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2438,7 +2641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2647,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2668,376 +2871,380 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>472</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>293</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
@@ -3084,7 +3291,8 @@
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
@@ -3110,7 +3318,14 @@
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3180,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3201,116 +3416,120 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>495</v>
-      </c>
+      <c r="A12" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
@@ -3596,7 +3815,19 @@
       <c r="A87" s="8"/>
       <c r="B87" s="5"/>
     </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="8"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="8"/>
+      <c r="B89" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3607,7 +3838,7 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3962,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4726,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5028,16 +5259,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="66.125" customWidth="1"/>
-    <col min="2" max="2" width="55.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="79.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -5049,486 +5280,662 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>545</v>
       </c>
     </row>
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6624,8 +7031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="702">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2370,6 +2370,90 @@
   </si>
   <si>
     <t>企业账户下，找车源-我的收藏模块，按照车重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_601_Enterprise_MyCarsOrdersPublicGoods_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_602_Enterprise_MyCarsOrdersPublicGoods_SendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_603_Enterprise_MyCarsOrdersPublicGoods_SendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_604_Enterprise_MyCarsOrdersPublicGoods_SendToAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_605_Enterprise_MyCarsOrdersPublicGoods_OrdersDateStart_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_606_Enterprise_MyCarsOrdersPublicGoods_OrdersDateEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_607_Enterprise_MyCarsOrdersPublicGoods_OrdersDateStartAndEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_608_Enterprise_MyCarsOrdersPublicGoods_OrdersNum_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_609_Enterprise_MyCarsOrdersPublicGoods_GoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_610_Enterprise_MyCarsOrdersPublicGoods_Driver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_611_Enterprise_MyCarsOrdersPublicGoods_Receiver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_612_Enterprise_MyCarsOrdersPublicGoods_HarvestCompany_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_701_Enterprise_PulicCarsOrders_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_702_Enterprise_PulicCarsOrders_SendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_703_Enterprise_PulicCarsOrders_SendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_704_Enterprise_PulicCarsOrders_SendToAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_705_Enterprise_PulicCarsOrders_OrdersDateStart_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_706_Enterprise_PulicCarsOrders_OrdersDateEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_707_Enterprise_PulicCarsOrders_OrdersDateStartAndEnd_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_708_Enterprise_PulicCarsOrders_OrdersNum_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_709_Enterprise_PulicCarsOrders_GoodsName_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_710_Enterprise_PulicCarsOrders_Driver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_711_Enterprise_PulicCarsOrders_Receiver_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_712_Enterprise_PulicCarsOrders_HarvestCompany_Test.java</t>
+  </si>
+  <si>
+    <t>我的订单-自由车队订单-货源自己发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-自由车队订单-货源从平台预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会车辆的订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2503,7 +2587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,6 +2630,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2564,7 +2652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2606,7 +2694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2641,7 +2729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5261,7 +5349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -7029,15 +7117,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.875" customWidth="1"/>
+    <col min="1" max="1" width="50.125" customWidth="1"/>
     <col min="2" max="2" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7157,100 +7245,235 @@
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B17" t="s">
-        <v>612</v>
+    <row r="17" spans="1:2" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B20" t="s">
-        <v>617</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B24" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B26" t="s">
-        <v>627</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>628</v>
+      </c>
+      <c r="B28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>629</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="717">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1175,9 +1175,6 @@
   </si>
   <si>
     <t>FindGoodsPagePrivateGoods_015_ValidAllVolumeData_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_016_CancelMyFavoriteGoods_Test.java</t>
   </si>
   <si>
     <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
@@ -2118,9 +2115,6 @@
     <t>FindGoodsPage_615_PrivateGoods_Enterprise_ValidAllVolumeData_Test.java</t>
   </si>
   <si>
-    <t>FindGoodsPage_616_PrivateGoods_Enterprise_CancelMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
     <t>自动化测试类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2455,6 +2449,62 @@
   <si>
     <t>社会车辆的订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_016_DefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_017_CreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_018_CarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_019_CarWeightSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_020_CarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_021_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的默认排序功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照信用等级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照车长排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照车重排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照体积排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPage_616_PrivateGoods_Enterprise_DefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_617_PrivateGoods_Enterprise_CreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_618_PrivateGoods_Enterprise_CarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_619_PrivateGoods_Enterprise_CarWeightSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_620_PrivateGoods_Enterprise_CarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPage_621_PrivateGoods_Enterprise_CancelMyFavoriteGoods_Test.java</t>
   </si>
 </sst>
 </file>
@@ -2624,16 +2674,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2959,10 +3009,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -3097,7 +3147,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3177,31 +3227,31 @@
         <v>313</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -3209,129 +3259,129 @@
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B34" s="17"/>
+      <c r="A34" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -3444,34 +3494,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3504,10 +3554,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -3575,48 +3625,48 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5368,10 +5418,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5383,106 +5433,106 @@
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5527,496 +5577,496 @@
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B43" s="17"/>
+      <c r="A43" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -6032,10 +6082,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6046,7 +6096,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -6054,7 +6104,7 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="12"/>
     </row>
@@ -6095,7 +6145,7 @@
         <v>176</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -6111,7 +6161,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -6119,7 +6169,7 @@
         <v>171</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -6135,7 +6185,7 @@
         <v>167</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -6143,7 +6193,7 @@
         <v>165</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6159,7 +6209,7 @@
         <v>161</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -6175,47 +6225,47 @@
         <v>157</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -6227,7 +6277,7 @@
         <v>321</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -6235,7 +6285,7 @@
         <v>322</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -6243,7 +6293,7 @@
         <v>323</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -6251,7 +6301,7 @@
         <v>324</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -6259,7 +6309,7 @@
         <v>325</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -6267,7 +6317,7 @@
         <v>326</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -6275,7 +6325,7 @@
         <v>327</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -6283,7 +6333,7 @@
         <v>328</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -6291,7 +6341,7 @@
         <v>329</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -6299,7 +6349,7 @@
         <v>330</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -6307,7 +6357,7 @@
         <v>331</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -6315,7 +6365,7 @@
         <v>332</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -6323,7 +6373,7 @@
         <v>333</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -6331,7 +6381,7 @@
         <v>334</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -6339,7 +6389,7 @@
         <v>335</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -6347,321 +6397,401 @@
         <v>336</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>337</v>
+        <v>700</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>353</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B42" s="11"/>
+      <c r="A42" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>561</v>
+        <v>703</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>183</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>562</v>
+        <v>704</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>563</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>564</v>
+        <v>705</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="A47" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>568</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>164</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>162</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>579</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>555</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>457</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>583</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>460</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>338</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>588</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>339</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>340</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>341</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>343</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>712</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>713</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>714</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>715</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>716</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7119,7 +7249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -7131,15 +7261,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="14"/>
     </row>
@@ -7148,332 +7278,332 @@
         <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>699</v>
+    <row r="17" spans="1:2" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B24" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="731">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2505,6 +2505,55 @@
   </si>
   <si>
     <t>FindGoodsPage_621_PrivateGoods_Enterprise_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_040_SendGoodsAgain_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_041_CheckSendedGoods_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_501_Enterprise_AllValidDataForWeightToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_502_Enterprise_AllValidDataForVolumeToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_503_Enterprise_AllValidRequiredDataForWeightToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_504_Enterprise_AllValidRequiredDataForVolumeToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_505_Enterprise_AllEmptyDataFailWeightToPlatform_Device_Test.java</t>
+  </si>
+  <si>
+    <t>再次发布货源功能检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测已经发布的货源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户下，发布一条到平台的货源（重量），所有信息都输入，点击发布按钮，货源发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户下，发布一条到平台的货源（体积），所有信息都输入，点击发布按钮，货源发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户下，发布一条到平台的货源（体积），什么信息都不输入，点击发布按钮，货源发布不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户下，发布一条到平台的货源（重量），只输入必填信息都输入，点击发布按钮，货源发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版账户下，发布一条到平台的货源（体积），只输入必填信息都输入，点击发布按钮，货源发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2702,7 +2751,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2744,7 +2793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2779,7 +2828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4331,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4662,32 +4711,60 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
@@ -6084,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B84" sqref="B84:B88"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="747">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2554,6 +2554,55 @@
   <si>
     <t>企业版账户下，发布一条到平台的货源（体积），只输入必填信息都输入，点击发布按钮，货源发布成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是企业版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGoodsPage_501_Enterprise_PlatformGoods_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_502_Enterprise_PlatformGoods_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_503_Enterprise_PlatformGoods_GoodsNoOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_504_Enterprise_PlatformGoods_OriginalCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_505_Enterprise_PlatformGoods_TargetCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_506_Enterprise_PlatformGoods_GoodsNameOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_507_Enterprise_PlatformGoods_StartWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_508_Enterprise_PlatformGoods_EndWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_509_Enterprise_PlatformGoods_AllWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_510_Enterprise_PlatformGoods_StartVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_511_Enterprise_PlatformGoods_EndVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_512_Enterprise_PlatformGoods_AllVolumeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_513_Enterprise_PlatformGoods_StartDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_514_Enterprise_PlatformGoods_EndDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_515_Enterprise_PlatformGoods_AllDateDataInputSearch_Test.java</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2800,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2793,7 +2842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2828,7 +2877,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4380,7 +4429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -5170,16 +5219,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
-    <col min="2" max="2" width="51.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="68.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -5190,221 +5239,285 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>135</v>
-      </c>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5"/>
+      <c r="A30" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5"/>
+      <c r="A33" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
@@ -5465,6 +5578,14 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7327,7 +7448,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="780">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2603,6 +2603,108 @@
   </si>
   <si>
     <t>MyGoodsPage_515_Enterprise_PlatformGoods_AllDateDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_601_Enterprise_CarsGoods_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_602_Enterprise_CarsGoods_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_603_Enterprise_CarsGoods_GoodsNoOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_604_Enterprise_CarsGoods_OriginalCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_605_Enterprise_CarsGoods_TargetCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_606_Enterprise_CarsGoods_GoodsNameOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_607_Enterprise_CarsGoods_StartWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_608_Enterprise_CarsGoods_EndWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_609_Enterprise_CarsGoods_AllWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_610_Enterprise_CarsGoods_StartVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_611_Enterprise_CarsGoods_EndVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_612_Enterprise_CarsGoods_AllVolumeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_613_Enterprise_CarsGoods_StartDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_614_Enterprise_CarsGoods_EndDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_615_Enterprise_CarsGoods_AllDateDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_701_Enterprise_PlatformOrdersGoods_UITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_702_Enterprise_PlatformOrdersGoods_AllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_703_Enterprise_PlatformOrdersGoods_GoodsNoOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_704_Enterprise_PlatformOrdersGoods_OriginalCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_705_Enterprise_PlatformOrdersGoods_TargetCityOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_706_Enterprise_PlatformOrdersGoods_GoodsNameOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_707_Enterprise_PlatformOrdersGoods_StartWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_708_Enterprise_PlatformOrdersGoods_EndWeightOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_709_Enterprise_PlatformOrdersGoods_AllWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_710_Enterprise_PlatformOrdersGoods_StartVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_711_Enterprise_PlatformOrdersGoods_EndVolumeOnlyDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_712_Enterprise_PlatformOrdersGoods_AllVolumeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_713_Enterprise_PlatformOrdersGoods_StartDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_714_Enterprise_PlatformOrdersGoods_EndDateDataOnlyInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_715_Enterprise_PlatformOrdersGoods_AllDateDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>从平台预定的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布到车队的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布到平台的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2735,7 +2837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2782,6 +2884,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5219,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5309,7 +5412,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>128</v>
       </c>
@@ -5333,7 +5436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>131</v>
       </c>
@@ -5381,7 +5484,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>317</v>
       </c>
@@ -5400,196 +5503,387 @@
       <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="A23" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
-    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
+      <c r="A39" s="20" t="s">
+        <v>778</v>
+      </c>
       <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="5"/>
+      <c r="A51" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>764</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>765</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>766</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>767</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>768</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>769</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>770</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>771</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>772</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>773</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>774</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>775</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>776</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="785">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2704,6 +2704,26 @@
   </si>
   <si>
     <t>发布到平台的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2837,7 +2857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2863,10 +2883,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2874,17 +2890,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3191,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3210,10 +3237,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -3460,10 +3487,10 @@
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
@@ -3755,10 +3782,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -3833,10 +3860,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -4532,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -5324,7 +5351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -5343,10 +5370,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5497,13 +5524,13 @@
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="15" t="s">
         <v>779</v>
       </c>
       <c r="B23" s="5"/>
@@ -5629,7 +5656,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>778</v>
       </c>
       <c r="B39" s="5"/>
@@ -5755,7 +5782,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>777</v>
       </c>
       <c r="B55" s="5"/>
@@ -5891,7 +5918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -5910,10 +5937,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6236,10 +6263,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
@@ -6574,10 +6601,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B88"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6594,699 +6621,723 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="A3" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>547</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>173</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>548</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>168</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>550</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>162</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>552</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>158</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>553</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>455</v>
+        <v>157</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>456</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>557</v>
-      </c>
+      <c r="A24" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>338</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>700</v>
+        <v>336</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>706</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-    </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="B48" s="19"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>562</v>
-      </c>
+      <c r="A49" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>177</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>567</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>569</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>168</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>578</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>554</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>456</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>337</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="A70" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>340</v>
+        <v>587</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B87" s="8" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>712</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>713</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>714</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>713</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>714</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>715</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>716</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A48:B48"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7295,10 +7346,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7317,279 +7368,281 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
@@ -7730,6 +7783,10 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="8"/>
+      <c r="B72" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7741,8 +7798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7760,10 +7817,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -7862,13 +7919,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="22" t="s">
         <v>697</v>
       </c>
     </row>
@@ -7969,7 +8026,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="A30" s="23" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8034,7 +8091,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="A43" s="23" t="s">
         <v>699</v>
       </c>
     </row>

--- a/logistics/res/caselist/自动化用例清单.xlsx
+++ b/logistics/res/caselist/自动化用例清单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="855">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2724,6 +2724,251 @@
   </si>
   <si>
     <t>标准版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendGoodsPage_506_Enterprise_AllEmptyDataFailWeightToPlatform_Heavy_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_507_Enterprise_AllEmptyDataFailVolumeToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_508_Enterprise_OriginalEmptyDataFailToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_509_Enterprise_ReceiptEmptyDataFailToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_510_Enterprise_GoodsNameEmptyDataFailToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_511_Enterprise_WeightEmptyDataFailToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_512_Enterprise_VolumeEmptyDataFailToPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_513_Enterprise_AllValidDataForWeightDetailEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_514_Enterprise_AllValidDataForVolumeDetailEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_515_Enterprise_CheckGoodsAllNamesFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_516_Enterprise_CheckAllCarTypesFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_517_Enterprise_CheckAllCarLengthFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_518_Enterprise_GoodsMemoCountFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_519_Enterprise_AllValidDataForSpecialZoneFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_520_Enterprise_BeyondWeightFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_521_Enterprise_BeyondVolumeFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_522_Enterprise_BeyondCountFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_523_Enterprise_BeyondInfofareFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_524_Enterprise_BeyondFareFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_525_Enterprise_BeyondDeclareFareFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_526_Enterprise_AllInputBeyondFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_527_Enterprise_WeightZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_528_Enterprise_VolumeZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_529_Enterprise_CountZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_530_Enterprise_InfoFareZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_531_Enterprise_FareZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_532_Enterprise_DeclareFareZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_533_Enterprise_AllInputZeroFailFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_534_Enterprise_AllForWeightCriticalMin_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_535_Enterprise_AllForWeightCriticalMax_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_536_Enterprise_AllForVolumeCriticalMin_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_537_Enterprise_AllForVolumeCriticalMax_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_538_Enterprise_ClearAllWeightFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_539_Enterprise_ClearAllVolumeFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_540_Enterprise_SendGoodsAgainFromPlatform_Test.java</t>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 在发布重货或者设备的类型的货源时，不输入任何其他货源信息，点击发送按钮，应该发布货源不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 在发布轻货的类型的货源时，不输入任何其他货源信息，点击发送按钮，应该发布货源不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 发货地不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 收货地不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物名称不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物重量不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物体积不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台（重货或者设备） - 货物详细名称不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台（抛货） - 货物详细名称不输入，其他输入点击发布按钮不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 -检查所有的货物名称是不是正确的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 检查所有的车型是不是正确的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 检查所有的车长的预留是不是和需求文档定义一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 检查货源详细说明输入框的字数输入统计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 特别行政区和直辖市之间互发货源验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 输入一个超过最大吨位的数字，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 输入一个超过最大体积的数字，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 输入一个超过最大货物件数的数字，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 输入一个超过最大信息费的数字，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 输入一个超过最大运费的数字，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 输入一个超过最大声明价值的数字，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 所有的数字输入超过最大值，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 重量输入框输入0吨，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 体积输入框输入0方，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 件数输入框输入0件，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 信息费输入0元，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 -运费输入0元，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 -声明价值输入0元，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 -所有数字输入框输入0，点击发布，不应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物重量输入最小值，应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物重量输入最大值，应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物体积输入最小值，应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台 - 货物体积输入最大值，应该发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台（重量或者设备） - 清空所有输入，应该清空成功，点击发送，不应该发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台（体积） - 清空所有输入，应该清空成功，点击发送，不应该发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业版发布货源到平台，发布成功以后，点击再发一条，应该能再次发送成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2892,6 +3137,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2904,14 +3157,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2930,7 +3175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2972,7 +3217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3007,7 +3252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3237,10 +3482,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -3487,10 +3732,10 @@
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
@@ -3782,10 +4027,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -3860,10 +4105,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -4560,7 +4805,7 @@
   <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4945,145 +5190,285 @@
         <v>728</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
@@ -5344,6 +5729,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5937,10 +6323,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6263,10 +6649,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
@@ -6622,13 +7008,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>780</v>
       </c>
       <c r="B3" s="8"/>
@@ -6794,7 +7180,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>781</v>
       </c>
       <c r="B24" s="8"/>
@@ -6980,13 +7366,13 @@
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="23"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="17" t="s">
         <v>782</v>
       </c>
       <c r="B49" s="8"/>
@@ -7152,7 +7538,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="16" t="s">
         <v>783</v>
       </c>
       <c r="B70" s="8"/>
@@ -7925,7 +8311,7 @@
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>697</v>
       </c>
     </row>
@@ -8026,7 +8412,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="19" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8091,7 +8477,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="19" t="s">
         <v>699</v>
       </c>
     </row>
